--- a/Docs/cores conexoes componentes.xlsx
+++ b/Docs/cores conexoes componentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\choppbot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A683F5-6D66-4467-9B1B-3C1105F5E8D5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DFE08D-17D2-44DD-B8AE-62D99FADC629}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8790" windowHeight="6525" xr2:uid="{D7141424-8346-4F96-8D07-84F981760692}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>bc</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t xml:space="preserve">SDA </t>
+  </si>
+  <si>
+    <t>3,3 V arduino</t>
+  </si>
+  <si>
+    <t>bc - gnd arduino</t>
+  </si>
+  <si>
+    <t>não usa</t>
+  </si>
+  <si>
+    <t>fonte externa</t>
   </si>
 </sst>
 </file>
@@ -153,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +352,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,46 +403,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -699,344 +732,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACDAA10-CFD5-4725-B7D6-47AD3FC43961}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="5.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="1" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="2.85546875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.85546875" style="1" customWidth="1"/>
-    <col min="18" max="22" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="5.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="2.85546875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.85546875" style="1" customWidth="1"/>
+    <col min="17" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="10" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="10" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="10" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="12"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="Q3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="J3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="R3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="J4" s="4" t="s">
+      <c r="G4" s="6"/>
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="N4" s="4" t="s">
+      <c r="K4" s="6"/>
+      <c r="M4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="N4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="R4" s="23" t="s">
+      <c r="O4" s="6"/>
+      <c r="Q4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="J5" s="4" t="s">
+      <c r="G5" s="6"/>
+      <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="J5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="N5" s="4" t="s">
+      <c r="K5" s="6"/>
+      <c r="M5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="R5" s="4" t="s">
+      <c r="O5" s="6"/>
+      <c r="Q5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="R5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="6"/>
+      <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="6"/>
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="J6" s="4" t="s">
+      <c r="G6" s="6"/>
+      <c r="I6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="N6" s="4" t="s">
+      <c r="K6" s="6"/>
+      <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="N6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="R6" s="4" t="s">
+      <c r="O6" s="6"/>
+      <c r="Q6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="R6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="6"/>
+      <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="I7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="N7" s="4" t="s">
+      <c r="K7" s="6"/>
+      <c r="M7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="N7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="R7" s="4" t="s">
+      <c r="O7" s="6"/>
+      <c r="Q7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="R7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="N8" s="4" t="s">
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="M8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="N8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="R8" s="4" t="s">
+      <c r="O8" s="6"/>
+      <c r="Q8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="21" t="s">
+      <c r="R8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="6"/>
+      <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N9" s="7" t="s">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="N9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="O9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="R9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="9"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/cores conexoes componentes.xlsx
+++ b/Docs/cores conexoes componentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\choppbot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DFE08D-17D2-44DD-B8AE-62D99FADC629}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C1B734-DA83-4635-A944-B462DA18AC9D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8790" windowHeight="6525" xr2:uid="{D7141424-8346-4F96-8D07-84F981760692}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>bc</t>
   </si>
@@ -129,13 +129,19 @@
     <t>3,3 V arduino</t>
   </si>
   <si>
-    <t>bc - gnd arduino</t>
-  </si>
-  <si>
     <t>não usa</t>
   </si>
   <si>
     <t>fonte externa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND placa rele </t>
+  </si>
+  <si>
+    <t>JD-Vcc</t>
+  </si>
+  <si>
+    <t>usar gnd da placa arduino ?</t>
   </si>
 </sst>
 </file>
@@ -394,6 +400,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,21 +422,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -735,12 +741,12 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.28515625" style="1" customWidth="1"/>
@@ -755,35 +761,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="31"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
@@ -891,7 +897,7 @@
       <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -968,7 +974,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>20</v>
@@ -1057,25 +1063,28 @@
       <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>36</v>
+      <c r="C10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/cores conexoes componentes.xlsx
+++ b/Docs/cores conexoes componentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\choppbot\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla-master\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C1B734-DA83-4635-A944-B462DA18AC9D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E512FE76-E26B-404B-8B02-8C6AB1958531}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8790" windowHeight="6525" xr2:uid="{D7141424-8346-4F96-8D07-84F981760692}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{D7141424-8346-4F96-8D07-84F981760692}"/>
   </bookViews>
   <sheets>
     <sheet name="componentes" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +166,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,13 +421,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -741,7 +747,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="O15" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,9 +756,9 @@
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="5.42578125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="6.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.85546875" style="1" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="1"/>
+    <col min="9" max="11" width="5.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.85546875" style="1" customWidth="1"/>
     <col min="13" max="14" width="7.28515625" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -760,7 +766,7 @@
     <col min="17" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>9</v>
       </c>

--- a/Docs/cores conexoes componentes.xlsx
+++ b/Docs/cores conexoes componentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla-master\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E512FE76-E26B-404B-8B02-8C6AB1958531}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1F4D1A-FEFA-4E17-9D1C-CDDC43660514}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{D7141424-8346-4F96-8D07-84F981760692}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D7141424-8346-4F96-8D07-84F981760692}"/>
   </bookViews>
   <sheets>
     <sheet name="componentes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>bc</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>usar gnd da placa arduino ?</t>
+  </si>
+  <si>
+    <t>gnd da fonte externa</t>
   </si>
 </sst>
 </file>
@@ -747,14 +750,14 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15:O16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="6.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.85546875" style="1" customWidth="1"/>
@@ -824,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
